--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.970312172610053</v>
+        <v>3.664368333333333</v>
       </c>
       <c r="H2">
-        <v>0.970312172610053</v>
+        <v>10.993105</v>
       </c>
       <c r="I2">
-        <v>0.003794793681339862</v>
+        <v>0.01377800822483461</v>
       </c>
       <c r="J2">
-        <v>0.003794793681339862</v>
+        <v>0.01377800822483461</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.223845982516203</v>
+        <v>0.2763116666666667</v>
       </c>
       <c r="N2">
-        <v>0.223845982516203</v>
+        <v>0.828935</v>
       </c>
       <c r="O2">
-        <v>0.01983766693313768</v>
+        <v>0.02083107478128044</v>
       </c>
       <c r="P2">
-        <v>0.01983766693313768</v>
+        <v>0.02083107478128044</v>
       </c>
       <c r="Q2">
-        <v>0.2172004816253289</v>
+        <v>1.012507721463889</v>
       </c>
       <c r="R2">
-        <v>0.2172004816253289</v>
+        <v>9.112569493175</v>
       </c>
       <c r="S2">
-        <v>7.527985313039559E-05</v>
+        <v>0.0002870107196686268</v>
       </c>
       <c r="T2">
-        <v>7.527985313039559E-05</v>
+        <v>0.0002870107196686268</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.970312172610053</v>
+        <v>3.664368333333333</v>
       </c>
       <c r="H3">
-        <v>0.970312172610053</v>
+        <v>10.993105</v>
       </c>
       <c r="I3">
-        <v>0.003794793681339862</v>
+        <v>0.01377800822483461</v>
       </c>
       <c r="J3">
-        <v>0.003794793681339862</v>
+        <v>0.01377800822483461</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.1260017532946</v>
+        <v>2.180798333333333</v>
       </c>
       <c r="N3">
-        <v>2.1260017532946</v>
+        <v>6.542395</v>
       </c>
       <c r="O3">
-        <v>0.188410415979086</v>
+        <v>0.1644098988384798</v>
       </c>
       <c r="P3">
-        <v>0.188410415979086</v>
+        <v>0.1644098988384798</v>
       </c>
       <c r="Q3">
-        <v>2.062885380212065</v>
+        <v>7.991248354052777</v>
       </c>
       <c r="R3">
-        <v>2.062885380212065</v>
+        <v>71.921235186475</v>
       </c>
       <c r="S3">
-        <v>0.0007149786560560505</v>
+        <v>0.002265240938440801</v>
       </c>
       <c r="T3">
-        <v>0.0007149786560560505</v>
+        <v>0.002265240938440801</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.970312172610053</v>
+        <v>3.664368333333333</v>
       </c>
       <c r="H4">
-        <v>0.970312172610053</v>
+        <v>10.993105</v>
       </c>
       <c r="I4">
-        <v>0.003794793681339862</v>
+        <v>0.01377800822483461</v>
       </c>
       <c r="J4">
-        <v>0.003794793681339862</v>
+        <v>0.01377800822483461</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.93403878525389</v>
+        <v>10.807288</v>
       </c>
       <c r="N4">
-        <v>8.93403878525389</v>
+        <v>32.421864</v>
       </c>
       <c r="O4">
-        <v>0.7917519170877764</v>
+        <v>0.8147590263802398</v>
       </c>
       <c r="P4">
-        <v>0.7917519170877764</v>
+        <v>0.8147590263802398</v>
       </c>
       <c r="Q4">
-        <v>8.66880658390218</v>
+        <v>39.60188391641334</v>
       </c>
       <c r="R4">
-        <v>8.66880658390218</v>
+        <v>356.41695524772</v>
       </c>
       <c r="S4">
-        <v>0.003004535172153417</v>
+        <v>0.01122575656672519</v>
       </c>
       <c r="T4">
-        <v>0.003004535172153417</v>
+        <v>0.01122575656672519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>217.550252091188</v>
+        <v>218.9522706666667</v>
       </c>
       <c r="H5">
-        <v>217.550252091188</v>
+        <v>656.856812</v>
       </c>
       <c r="I5">
-        <v>0.8508172372906097</v>
+        <v>0.8232595393453117</v>
       </c>
       <c r="J5">
-        <v>0.8508172372906097</v>
+        <v>0.8232595393453117</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.223845982516203</v>
+        <v>0.2763116666666667</v>
       </c>
       <c r="N5">
-        <v>0.223845982516203</v>
+        <v>0.828935</v>
       </c>
       <c r="O5">
-        <v>0.01983766693313768</v>
+        <v>0.02083107478128044</v>
       </c>
       <c r="P5">
-        <v>0.01983766693313768</v>
+        <v>0.02083107478128044</v>
       </c>
       <c r="Q5">
-        <v>48.69774992599962</v>
+        <v>60.49906682835778</v>
       </c>
       <c r="R5">
-        <v>48.69774992599962</v>
+        <v>544.49160145522</v>
       </c>
       <c r="S5">
-        <v>0.01687822897434348</v>
+        <v>0.01714938102850467</v>
       </c>
       <c r="T5">
-        <v>0.01687822897434348</v>
+        <v>0.01714938102850467</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>217.550252091188</v>
+        <v>218.9522706666667</v>
       </c>
       <c r="H6">
-        <v>217.550252091188</v>
+        <v>656.856812</v>
       </c>
       <c r="I6">
-        <v>0.8508172372906097</v>
+        <v>0.8232595393453117</v>
       </c>
       <c r="J6">
-        <v>0.8508172372906097</v>
+        <v>0.8232595393453117</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.1260017532946</v>
+        <v>2.180798333333333</v>
       </c>
       <c r="N6">
-        <v>2.1260017532946</v>
+        <v>6.542395</v>
       </c>
       <c r="O6">
-        <v>0.188410415979086</v>
+        <v>0.1644098988384798</v>
       </c>
       <c r="P6">
-        <v>0.188410415979086</v>
+        <v>0.1644098988384798</v>
       </c>
       <c r="Q6">
-        <v>462.5122173755479</v>
+        <v>477.4907469494155</v>
       </c>
       <c r="R6">
-        <v>462.5122173755479</v>
+        <v>4297.41672254474</v>
       </c>
       <c r="S6">
-        <v>0.1603028296001005</v>
+        <v>0.1353520175815761</v>
       </c>
       <c r="T6">
-        <v>0.1603028296001005</v>
+        <v>0.1353520175815761</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>217.550252091188</v>
+        <v>218.9522706666667</v>
       </c>
       <c r="H7">
-        <v>217.550252091188</v>
+        <v>656.856812</v>
       </c>
       <c r="I7">
-        <v>0.8508172372906097</v>
+        <v>0.8232595393453117</v>
       </c>
       <c r="J7">
-        <v>0.8508172372906097</v>
+        <v>0.8232595393453117</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.93403878525389</v>
+        <v>10.807288</v>
       </c>
       <c r="N7">
-        <v>8.93403878525389</v>
+        <v>32.421864</v>
       </c>
       <c r="O7">
-        <v>0.7917519170877764</v>
+        <v>0.8147590263802398</v>
       </c>
       <c r="P7">
-        <v>0.7917519170877764</v>
+        <v>0.8147590263802398</v>
       </c>
       <c r="Q7">
-        <v>1943.602389924435</v>
+        <v>2366.280247348619</v>
       </c>
       <c r="R7">
-        <v>1943.602389924435</v>
+        <v>21296.52222613757</v>
       </c>
       <c r="S7">
-        <v>0.6736361787161658</v>
+        <v>0.6707581407352309</v>
       </c>
       <c r="T7">
-        <v>0.6736361787161658</v>
+        <v>0.6707581407352309</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.1750687771677</v>
+        <v>43.34113033333333</v>
       </c>
       <c r="H8">
-        <v>37.1750687771677</v>
+        <v>130.023391</v>
       </c>
       <c r="I8">
-        <v>0.1453879690280505</v>
+        <v>0.1629624524298537</v>
       </c>
       <c r="J8">
-        <v>0.1453879690280505</v>
+        <v>0.1629624524298537</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.223845982516203</v>
+        <v>0.2763116666666667</v>
       </c>
       <c r="N8">
-        <v>0.223845982516203</v>
+        <v>0.828935</v>
       </c>
       <c r="O8">
-        <v>0.01983766693313768</v>
+        <v>0.02083107478128044</v>
       </c>
       <c r="P8">
-        <v>0.01983766693313768</v>
+        <v>0.02083107478128044</v>
       </c>
       <c r="Q8">
-        <v>8.321489795532525</v>
+        <v>11.97565995762056</v>
       </c>
       <c r="R8">
-        <v>8.321489795532525</v>
+        <v>107.780939618585</v>
       </c>
       <c r="S8">
-        <v>0.002884158105663803</v>
+        <v>0.003394683033107138</v>
       </c>
       <c r="T8">
-        <v>0.002884158105663803</v>
+        <v>0.003394683033107139</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.1750687771677</v>
+        <v>43.34113033333333</v>
       </c>
       <c r="H9">
-        <v>37.1750687771677</v>
+        <v>130.023391</v>
       </c>
       <c r="I9">
-        <v>0.1453879690280505</v>
+        <v>0.1629624524298537</v>
       </c>
       <c r="J9">
-        <v>0.1453879690280505</v>
+        <v>0.1629624524298537</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.1260017532946</v>
+        <v>2.180798333333333</v>
       </c>
       <c r="N9">
-        <v>2.1260017532946</v>
+        <v>6.542395</v>
       </c>
       <c r="O9">
-        <v>0.188410415979086</v>
+        <v>0.1644098988384798</v>
       </c>
       <c r="P9">
-        <v>0.188410415979086</v>
+        <v>0.1644098988384798</v>
       </c>
       <c r="Q9">
-        <v>79.03426139910587</v>
+        <v>94.51826479571611</v>
       </c>
       <c r="R9">
-        <v>79.03426139910587</v>
+        <v>850.664383161445</v>
       </c>
       <c r="S9">
-        <v>0.02739260772292947</v>
+        <v>0.02679264031846281</v>
       </c>
       <c r="T9">
-        <v>0.02739260772292947</v>
+        <v>0.02679264031846282</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>37.1750687771677</v>
+        <v>43.34113033333333</v>
       </c>
       <c r="H10">
-        <v>37.1750687771677</v>
+        <v>130.023391</v>
       </c>
       <c r="I10">
-        <v>0.1453879690280505</v>
+        <v>0.1629624524298537</v>
       </c>
       <c r="J10">
-        <v>0.1453879690280505</v>
+        <v>0.1629624524298537</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.93403878525389</v>
+        <v>10.807288</v>
       </c>
       <c r="N10">
-        <v>8.93403878525389</v>
+        <v>32.421864</v>
       </c>
       <c r="O10">
-        <v>0.7917519170877764</v>
+        <v>0.8147590263802398</v>
       </c>
       <c r="P10">
-        <v>0.7917519170877764</v>
+        <v>0.8147590263802398</v>
       </c>
       <c r="Q10">
-        <v>332.1235062996971</v>
+        <v>468.4000777578693</v>
       </c>
       <c r="R10">
-        <v>332.1235062996971</v>
+        <v>4215.600699820824</v>
       </c>
       <c r="S10">
-        <v>0.1151112031994573</v>
+        <v>0.1327751290782837</v>
       </c>
       <c r="T10">
-        <v>0.1151112031994573</v>
+        <v>0.1327751290782838</v>
       </c>
     </row>
   </sheetData>
